--- a/1前端面试复盘/前端面试前复盘-2023-8-5.xlsx
+++ b/1前端面试复盘/前端面试前复盘-2023-8-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王翔\Desktop\前端知识总结\frontEnd-Code\1前端面试复盘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AB431D-752E-4F45-84B1-666CFD941E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF76FD05-9B51-476F-8D86-89220E52AB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2CC69FB4-33CF-4332-9317-834D0B7B6EE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{2CC69FB4-33CF-4332-9317-834D0B7B6EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="JS" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="HTTP" sheetId="8" r:id="rId8"/>
     <sheet name="浏览渲染原理" sheetId="9" r:id="rId9"/>
     <sheet name="常用算法" sheetId="10" r:id="rId10"/>
+    <sheet name="项目难点" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="13">
   <si>
     <t>原型 和 原型链</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,7 +105,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">：1.原型链继承   2.盗用构造函数继承   3. 原型式继承  4.寄生式组合继承                                 </t>
+      <t xml:space="preserve">：1.原型链继承   2.盗用构造函数继承   3.组合式继承（1 + 2）  4.寄生式组合继承                                 </t>
     </r>
     <r>
       <rPr>
@@ -127,7 +128,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ：1.组合式继承   2.寄生式继承</t>
+      <t xml:space="preserve"> ：1.原型式继承   2.寄生式继承</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +196,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -227,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +255,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8734166-5DCC-446E-B692-7F1897B26D9D}">
   <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +585,7 @@
     <col min="1" max="1" width="37.375" customWidth="1"/>
     <col min="2" max="2" width="42.625" customWidth="1"/>
     <col min="3" max="3" width="40.75" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -600,7 +613,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AA2" s="1"/>
@@ -635,14 +648,14 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AA4" s="1"/>
@@ -1266,14 +1279,71 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BDE6E6-35ED-44A0-B4FA-AF4486ED1A95}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F5B18B-22F5-4D02-8563-928546487384}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="40.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1281,12 +1351,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F507B15D-D4F0-4D9F-9EBD-34F0A69E0717}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1294,14 +1387,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D66FDFC-0708-4D2B-B031-B4BB409FC08D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1309,12 +1417,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982A713E-F29B-4BCF-974B-F0522073DFEB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1322,14 +1453,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED7198F-6BB9-4E1F-A77A-53FDD214A071}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1337,14 +1483,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB813BD0-7430-4687-8B22-0DBB3F4E7363}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1352,14 +1513,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428F8D9D-1462-4B0A-B249-0389C02F151C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="42.875" customWidth="1"/>
+    <col min="2" max="2" width="41.375" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1367,14 +1549,35 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB0567E-87EF-432C-8137-EC4C9D007812}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1382,14 +1585,35 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B827E0-BEFC-4868-BE7B-CBFE699755A2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="46.625" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="48.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
